--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>97.82297766666666</v>
+        <v>162.509832</v>
       </c>
       <c r="H2">
-        <v>293.468933</v>
+        <v>487.529496</v>
       </c>
       <c r="I2">
-        <v>0.7034129241227491</v>
+        <v>0.8019024666764465</v>
       </c>
       <c r="J2">
-        <v>0.7034129241227491</v>
+        <v>0.8019024666764467</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.34532166666667</v>
+        <v>50.83061333333333</v>
       </c>
       <c r="N2">
-        <v>40.035965</v>
+        <v>152.49184</v>
       </c>
       <c r="O2">
-        <v>0.7382137387678421</v>
+        <v>0.9288843026824684</v>
       </c>
       <c r="P2">
-        <v>0.7382137387678421</v>
+        <v>0.9288843026824685</v>
       </c>
       <c r="Q2">
-        <v>1305.479103352816</v>
+        <v>8260.474433256959</v>
       </c>
       <c r="R2">
-        <v>11749.31193017535</v>
+        <v>74344.26989931264</v>
       </c>
       <c r="S2">
-        <v>0.5192690846142751</v>
+        <v>0.7448746135781024</v>
       </c>
       <c r="T2">
-        <v>0.5192690846142751</v>
+        <v>0.7448746135781026</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>97.82297766666666</v>
+        <v>162.509832</v>
       </c>
       <c r="H3">
-        <v>293.468933</v>
+        <v>487.529496</v>
       </c>
       <c r="I3">
-        <v>0.7034129241227491</v>
+        <v>0.8019024666764465</v>
       </c>
       <c r="J3">
-        <v>0.7034129241227491</v>
+        <v>0.8019024666764467</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.5919546666666667</v>
+        <v>0.473144</v>
       </c>
       <c r="N3">
-        <v>1.775864</v>
+        <v>1.419432</v>
       </c>
       <c r="O3">
-        <v>0.03274473846161109</v>
+        <v>0.008646286276860333</v>
       </c>
       <c r="P3">
-        <v>0.03274473846161109</v>
+        <v>0.008646286276860333</v>
       </c>
       <c r="Q3">
-        <v>57.90676813701245</v>
+        <v>76.89055195180799</v>
       </c>
       <c r="R3">
-        <v>521.1609132331121</v>
+        <v>692.014967566272</v>
       </c>
       <c r="S3">
-        <v>0.0230330722309165</v>
+        <v>0.00693347829300501</v>
       </c>
       <c r="T3">
-        <v>0.0230330722309165</v>
+        <v>0.006933478293005012</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>97.82297766666666</v>
+        <v>162.509832</v>
       </c>
       <c r="H4">
-        <v>293.468933</v>
+        <v>487.529496</v>
       </c>
       <c r="I4">
-        <v>0.7034129241227491</v>
+        <v>0.8019024666764465</v>
       </c>
       <c r="J4">
-        <v>0.7034129241227491</v>
+        <v>0.8019024666764467</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1685233333333334</v>
+        <v>0.02107566666666667</v>
       </c>
       <c r="N4">
-        <v>0.5055700000000001</v>
+        <v>0.06322700000000001</v>
       </c>
       <c r="O4">
-        <v>0.009322086276897734</v>
+        <v>0.000385139085512408</v>
       </c>
       <c r="P4">
-        <v>0.009322086276897732</v>
+        <v>0.000385139085512408</v>
       </c>
       <c r="Q4">
-        <v>16.48545427297889</v>
+        <v>3.425003049288</v>
       </c>
       <c r="R4">
-        <v>148.36908845681</v>
+        <v>30.825027443592</v>
       </c>
       <c r="S4">
-        <v>0.006557275966957187</v>
+        <v>0.0003088439826859108</v>
       </c>
       <c r="T4">
-        <v>0.006557275966957186</v>
+        <v>0.0003088439826859109</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>97.82297766666666</v>
+        <v>162.509832</v>
       </c>
       <c r="H5">
-        <v>293.468933</v>
+        <v>487.529496</v>
       </c>
       <c r="I5">
-        <v>0.7034129241227491</v>
+        <v>0.8019024666764465</v>
       </c>
       <c r="J5">
-        <v>0.7034129241227491</v>
+        <v>0.8019024666764467</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.068965333333333</v>
+        <v>3.126972</v>
       </c>
       <c r="N5">
-        <v>6.206896</v>
+        <v>9.380915999999999</v>
       </c>
       <c r="O5">
-        <v>0.1144474949536789</v>
+        <v>0.05714263541696926</v>
       </c>
       <c r="P5">
-        <v>0.1144474949536789</v>
+        <v>0.05714263541696927</v>
       </c>
       <c r="Q5">
-        <v>202.3923495957742</v>
+        <v>508.163694388704</v>
       </c>
       <c r="R5">
-        <v>1821.531146361968</v>
+        <v>4573.473249498335</v>
       </c>
       <c r="S5">
-        <v>0.08050384708389083</v>
+        <v>0.04582282029326053</v>
       </c>
       <c r="T5">
-        <v>0.08050384708389083</v>
+        <v>0.04582282029326054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.82297766666666</v>
+        <v>162.509832</v>
       </c>
       <c r="H6">
-        <v>293.468933</v>
+        <v>487.529496</v>
       </c>
       <c r="I6">
-        <v>0.7034129241227491</v>
+        <v>0.8019024666764465</v>
       </c>
       <c r="J6">
-        <v>0.7034129241227491</v>
+        <v>0.8019024666764467</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.903091</v>
+        <v>0.2704173333333333</v>
       </c>
       <c r="N6">
-        <v>5.709273</v>
+        <v>0.811252</v>
       </c>
       <c r="O6">
-        <v>0.1052719415399702</v>
+        <v>0.00494163653818957</v>
       </c>
       <c r="P6">
-        <v>0.1052719415399702</v>
+        <v>0.00494163653818957</v>
       </c>
       <c r="Q6">
-        <v>186.1660283906343</v>
+        <v>43.945475409888</v>
       </c>
       <c r="R6">
-        <v>1675.494255515709</v>
+        <v>395.509278688992</v>
       </c>
       <c r="S6">
-        <v>0.07404964422670957</v>
+        <v>0.003962710529392672</v>
       </c>
       <c r="T6">
-        <v>0.07404964422670957</v>
+        <v>0.003962710529392673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>63.36631800000001</v>
       </c>
       <c r="I7">
-        <v>0.1518821313712004</v>
+        <v>0.1042267332034493</v>
       </c>
       <c r="J7">
-        <v>0.1518821313712004</v>
+        <v>0.1042267332034494</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.34532166666667</v>
+        <v>50.83061333333333</v>
       </c>
       <c r="N7">
-        <v>40.035965</v>
+        <v>152.49184</v>
       </c>
       <c r="O7">
-        <v>0.7382137387678421</v>
+        <v>0.9288843026824684</v>
       </c>
       <c r="P7">
-        <v>0.7382137387678421</v>
+        <v>0.9288843026824685</v>
       </c>
       <c r="Q7">
-        <v>281.8812988474301</v>
+        <v>1073.64960287168</v>
       </c>
       <c r="R7">
-        <v>2536.931689626871</v>
+        <v>9662.84642584512</v>
       </c>
       <c r="S7">
-        <v>0.1121214760515624</v>
+        <v>0.09681457639255771</v>
       </c>
       <c r="T7">
-        <v>0.1121214760515624</v>
+        <v>0.09681457639255774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>63.36631800000001</v>
       </c>
       <c r="I8">
-        <v>0.1518821313712004</v>
+        <v>0.1042267332034493</v>
       </c>
       <c r="J8">
-        <v>0.1518821313712004</v>
+        <v>0.1042267332034494</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.5919546666666667</v>
+        <v>0.473144</v>
       </c>
       <c r="N8">
-        <v>1.775864</v>
+        <v>1.419432</v>
       </c>
       <c r="O8">
-        <v>0.03274473846161109</v>
+        <v>0.008646286276860333</v>
       </c>
       <c r="P8">
-        <v>0.03274473846161109</v>
+        <v>0.008646286276860333</v>
       </c>
       <c r="Q8">
-        <v>12.503329216528</v>
+        <v>9.993797721264002</v>
       </c>
       <c r="R8">
-        <v>112.529962948752</v>
+        <v>89.944179491376</v>
       </c>
       <c r="S8">
-        <v>0.004973340668742013</v>
+        <v>0.0009011741729789672</v>
       </c>
       <c r="T8">
-        <v>0.004973340668742012</v>
+        <v>0.0009011741729789673</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>63.36631800000001</v>
       </c>
       <c r="I9">
-        <v>0.1518821313712004</v>
+        <v>0.1042267332034493</v>
       </c>
       <c r="J9">
-        <v>0.1518821313712004</v>
+        <v>0.1042267332034494</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1685233333333334</v>
+        <v>0.02107566666666667</v>
       </c>
       <c r="N9">
-        <v>0.5055700000000001</v>
+        <v>0.06322700000000001</v>
       </c>
       <c r="O9">
-        <v>0.009322086276897734</v>
+        <v>0.000385139085512408</v>
       </c>
       <c r="P9">
-        <v>0.009322086276897732</v>
+        <v>0.000385139085512408</v>
       </c>
       <c r="Q9">
-        <v>3.559567710140001</v>
+        <v>0.4451624653540001</v>
       </c>
       <c r="R9">
-        <v>32.03610939126001</v>
+        <v>4.006462188186001</v>
       </c>
       <c r="S9">
-        <v>0.001415858332561446</v>
+        <v>4.014178871192221E-05</v>
       </c>
       <c r="T9">
-        <v>0.001415858332561445</v>
+        <v>4.014178871192222E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>63.36631800000001</v>
       </c>
       <c r="I10">
-        <v>0.1518821313712004</v>
+        <v>0.1042267332034493</v>
       </c>
       <c r="J10">
-        <v>0.1518821313712004</v>
+        <v>0.1042267332034494</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.068965333333333</v>
+        <v>3.126972</v>
       </c>
       <c r="N10">
-        <v>6.206896</v>
+        <v>9.380915999999999</v>
       </c>
       <c r="O10">
-        <v>0.1144474949536789</v>
+        <v>0.05714263541696926</v>
       </c>
       <c r="P10">
-        <v>0.1144474949536789</v>
+        <v>0.05714263541696927</v>
       </c>
       <c r="Q10">
-        <v>43.700905080992</v>
+        <v>66.04823404303201</v>
       </c>
       <c r="R10">
-        <v>393.3081457289281</v>
+        <v>594.434106387288</v>
       </c>
       <c r="S10">
-        <v>0.01738252946365944</v>
+        <v>0.00595579021614643</v>
       </c>
       <c r="T10">
-        <v>0.01738252946365944</v>
+        <v>0.005955790216146432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>63.36631800000001</v>
       </c>
       <c r="I11">
-        <v>0.1518821313712004</v>
+        <v>0.1042267332034493</v>
       </c>
       <c r="J11">
-        <v>0.1518821313712004</v>
+        <v>0.1042267332034494</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.903091</v>
+        <v>0.2704173333333333</v>
       </c>
       <c r="N11">
-        <v>5.709273</v>
+        <v>0.811252</v>
       </c>
       <c r="O11">
-        <v>0.1052719415399702</v>
+        <v>0.00494163653818957</v>
       </c>
       <c r="P11">
-        <v>0.1052719415399702</v>
+        <v>0.00494163653818957</v>
       </c>
       <c r="Q11">
-        <v>40.197289829646</v>
+        <v>5.711783578904001</v>
       </c>
       <c r="R11">
-        <v>361.775608466814</v>
+        <v>51.406052210136</v>
       </c>
       <c r="S11">
-        <v>0.01598892685467508</v>
+        <v>0.0005150506330543013</v>
       </c>
       <c r="T11">
-        <v>0.01598892685467508</v>
+        <v>0.0005150506330543014</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.9873686666666668</v>
+        <v>0.2428506666666667</v>
       </c>
       <c r="H12">
-        <v>2.962106</v>
+        <v>0.728552</v>
       </c>
       <c r="I12">
-        <v>0.007099843999574361</v>
+        <v>0.001198343178608538</v>
       </c>
       <c r="J12">
-        <v>0.007099843999574361</v>
+        <v>0.001198343178608538</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.34532166666667</v>
+        <v>50.83061333333333</v>
       </c>
       <c r="N12">
-        <v>40.035965</v>
+        <v>152.49184</v>
       </c>
       <c r="O12">
-        <v>0.7382137387678421</v>
+        <v>0.9288843026824684</v>
       </c>
       <c r="P12">
-        <v>0.7382137387678421</v>
+        <v>0.9288843026824685</v>
       </c>
       <c r="Q12">
-        <v>13.17675246025445</v>
+        <v>12.34424833507556</v>
       </c>
       <c r="R12">
-        <v>118.59077214229</v>
+        <v>111.09823501568</v>
       </c>
       <c r="S12">
-        <v>0.005241202383594219</v>
+        <v>0.001113122167836084</v>
       </c>
       <c r="T12">
-        <v>0.005241202383594218</v>
+        <v>0.001113122167836085</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.9873686666666668</v>
+        <v>0.2428506666666667</v>
       </c>
       <c r="H13">
-        <v>2.962106</v>
+        <v>0.728552</v>
       </c>
       <c r="I13">
-        <v>0.007099843999574361</v>
+        <v>0.001198343178608538</v>
       </c>
       <c r="J13">
-        <v>0.007099843999574361</v>
+        <v>0.001198343178608538</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.5919546666666667</v>
+        <v>0.473144</v>
       </c>
       <c r="N13">
-        <v>1.775864</v>
+        <v>1.419432</v>
       </c>
       <c r="O13">
-        <v>0.03274473846161109</v>
+        <v>0.008646286276860333</v>
       </c>
       <c r="P13">
-        <v>0.03274473846161109</v>
+        <v>0.008646286276860333</v>
       </c>
       <c r="Q13">
-        <v>0.5844774899537779</v>
+        <v>0.1149033358293333</v>
       </c>
       <c r="R13">
-        <v>5.260297409584002</v>
+        <v>1.034130022464</v>
       </c>
       <c r="S13">
-        <v>0.0002324825348843013</v>
+        <v>1.036121818017219E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002324825348843012</v>
+        <v>1.036121818017219E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>23</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.9873686666666668</v>
+        <v>0.2428506666666667</v>
       </c>
       <c r="H14">
-        <v>2.962106</v>
+        <v>0.728552</v>
       </c>
       <c r="I14">
-        <v>0.007099843999574361</v>
+        <v>0.001198343178608538</v>
       </c>
       <c r="J14">
-        <v>0.007099843999574361</v>
+        <v>0.001198343178608538</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1685233333333334</v>
+        <v>0.02107566666666667</v>
       </c>
       <c r="N14">
-        <v>0.5055700000000001</v>
+        <v>0.06322700000000001</v>
       </c>
       <c r="O14">
-        <v>0.009322086276897734</v>
+        <v>0.000385139085512408</v>
       </c>
       <c r="P14">
-        <v>0.009322086276897732</v>
+        <v>0.000385139085512408</v>
       </c>
       <c r="Q14">
-        <v>0.1663946589355556</v>
+        <v>0.005118239700444445</v>
       </c>
       <c r="R14">
-        <v>1.49755193042</v>
+        <v>0.046064157304</v>
       </c>
       <c r="S14">
-        <v>6.618535831654687E-05</v>
+        <v>4.615287959393245E-07</v>
       </c>
       <c r="T14">
-        <v>6.618535831654686E-05</v>
+        <v>4.615287959393246E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.9873686666666668</v>
+        <v>0.2428506666666667</v>
       </c>
       <c r="H15">
-        <v>2.962106</v>
+        <v>0.728552</v>
       </c>
       <c r="I15">
-        <v>0.007099843999574361</v>
+        <v>0.001198343178608538</v>
       </c>
       <c r="J15">
-        <v>0.007099843999574361</v>
+        <v>0.001198343178608538</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.068965333333333</v>
+        <v>3.126972</v>
       </c>
       <c r="N15">
-        <v>6.206896</v>
+        <v>9.380915999999999</v>
       </c>
       <c r="O15">
-        <v>0.1144474949536789</v>
+        <v>0.05714263541696926</v>
       </c>
       <c r="P15">
-        <v>0.1144474949536789</v>
+        <v>0.05714263541696927</v>
       </c>
       <c r="Q15">
-        <v>2.042831542552889</v>
+        <v>0.759387234848</v>
       </c>
       <c r="R15">
-        <v>18.385483882976</v>
+        <v>6.834485113631999</v>
       </c>
       <c r="S15">
-        <v>0.0008125593603131939</v>
+        <v>6.847648735963977E-05</v>
       </c>
       <c r="T15">
-        <v>0.0008125593603131938</v>
+        <v>6.847648735963977E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.9873686666666668</v>
+        <v>0.2428506666666667</v>
       </c>
       <c r="H16">
-        <v>2.962106</v>
+        <v>0.728552</v>
       </c>
       <c r="I16">
-        <v>0.007099843999574361</v>
+        <v>0.001198343178608538</v>
       </c>
       <c r="J16">
-        <v>0.007099843999574361</v>
+        <v>0.001198343178608538</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.903091</v>
+        <v>0.2704173333333333</v>
       </c>
       <c r="N16">
-        <v>5.709273</v>
+        <v>0.811252</v>
       </c>
       <c r="O16">
-        <v>0.1052719415399702</v>
+        <v>0.00494163653818957</v>
       </c>
       <c r="P16">
-        <v>0.1052719415399702</v>
+        <v>0.00494163653818957</v>
       </c>
       <c r="Q16">
-        <v>1.879052423215334</v>
+        <v>0.06567102967822222</v>
       </c>
       <c r="R16">
-        <v>16.911471808938</v>
+        <v>0.591039267104</v>
       </c>
       <c r="S16">
-        <v>0.0007474143624661006</v>
+        <v>5.921776436702182E-06</v>
       </c>
       <c r="T16">
-        <v>0.0007474143624661005</v>
+        <v>5.921776436702182E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.98934766666666</v>
+        <v>17.29256033333333</v>
       </c>
       <c r="H17">
-        <v>50.96804299999999</v>
+        <v>51.877681</v>
       </c>
       <c r="I17">
-        <v>0.1221648226848053</v>
+        <v>0.08532989429495733</v>
       </c>
       <c r="J17">
-        <v>0.1221648226848053</v>
+        <v>0.08532989429495734</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.34532166666667</v>
+        <v>50.83061333333333</v>
       </c>
       <c r="N17">
-        <v>40.035965</v>
+        <v>152.49184</v>
       </c>
       <c r="O17">
-        <v>0.7382137387678421</v>
+        <v>0.9288843026824684</v>
       </c>
       <c r="P17">
-        <v>0.7382137387678421</v>
+        <v>0.9288843026824685</v>
       </c>
       <c r="Q17">
-        <v>226.7283095184994</v>
+        <v>878.9914478470043</v>
       </c>
       <c r="R17">
-        <v>2040.554785666495</v>
+        <v>7910.923030623039</v>
       </c>
       <c r="S17">
-        <v>0.09018375050006062</v>
+        <v>0.07926159936014017</v>
       </c>
       <c r="T17">
-        <v>0.09018375050006062</v>
+        <v>0.0792615993601402</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.98934766666666</v>
+        <v>17.29256033333333</v>
       </c>
       <c r="H18">
-        <v>50.96804299999999</v>
+        <v>51.877681</v>
       </c>
       <c r="I18">
-        <v>0.1221648226848053</v>
+        <v>0.08532989429495733</v>
       </c>
       <c r="J18">
-        <v>0.1221648226848053</v>
+        <v>0.08532989429495734</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.5919546666666667</v>
+        <v>0.473144</v>
       </c>
       <c r="N18">
-        <v>1.775864</v>
+        <v>1.419432</v>
       </c>
       <c r="O18">
-        <v>0.03274473846161109</v>
+        <v>0.008646286276860333</v>
       </c>
       <c r="P18">
-        <v>0.03274473846161109</v>
+        <v>0.008646286276860333</v>
       </c>
       <c r="Q18">
-        <v>10.05692363490578</v>
+        <v>8.181871166354666</v>
       </c>
       <c r="R18">
-        <v>90.512312714152</v>
+        <v>73.636840497192</v>
       </c>
       <c r="S18">
-        <v>0.004000255168023043</v>
+        <v>0.0007377866940484324</v>
       </c>
       <c r="T18">
-        <v>0.004000255168023043</v>
+        <v>0.0007377866940484325</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.98934766666666</v>
+        <v>17.29256033333333</v>
       </c>
       <c r="H19">
-        <v>50.96804299999999</v>
+        <v>51.877681</v>
       </c>
       <c r="I19">
-        <v>0.1221648226848053</v>
+        <v>0.08532989429495733</v>
       </c>
       <c r="J19">
-        <v>0.1221648226848053</v>
+        <v>0.08532989429495734</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.1685233333333334</v>
+        <v>0.02107566666666667</v>
       </c>
       <c r="N19">
-        <v>0.5055700000000001</v>
+        <v>0.06322700000000001</v>
       </c>
       <c r="O19">
-        <v>0.009322086276897734</v>
+        <v>0.000385139085512408</v>
       </c>
       <c r="P19">
-        <v>0.009322086276897732</v>
+        <v>0.000385139085512408</v>
       </c>
       <c r="Q19">
-        <v>2.863101499945556</v>
+        <v>0.3644522373985555</v>
       </c>
       <c r="R19">
-        <v>25.76791349951</v>
+        <v>3.280070136587</v>
       </c>
       <c r="S19">
-        <v>0.001138831017069669</v>
+        <v>3.28638774556303E-05</v>
       </c>
       <c r="T19">
-        <v>0.001138831017069668</v>
+        <v>3.286387745563031E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.98934766666666</v>
+        <v>17.29256033333333</v>
       </c>
       <c r="H20">
-        <v>50.96804299999999</v>
+        <v>51.877681</v>
       </c>
       <c r="I20">
-        <v>0.1221648226848053</v>
+        <v>0.08532989429495733</v>
       </c>
       <c r="J20">
-        <v>0.1221648226848053</v>
+        <v>0.08532989429495734</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.068965333333333</v>
+        <v>3.126972</v>
       </c>
       <c r="N20">
-        <v>6.206896</v>
+        <v>9.380915999999999</v>
       </c>
       <c r="O20">
-        <v>0.1144474949536789</v>
+        <v>0.05714263541696926</v>
       </c>
       <c r="P20">
-        <v>0.1144474949536789</v>
+        <v>0.05714263541696927</v>
       </c>
       <c r="Q20">
-        <v>35.15037135828089</v>
+        <v>54.07335197064399</v>
       </c>
       <c r="R20">
-        <v>316.353342224528</v>
+        <v>486.6601677357959</v>
       </c>
       <c r="S20">
-        <v>0.01398145792773633</v>
+        <v>0.004875975039865272</v>
       </c>
       <c r="T20">
-        <v>0.01398145792773633</v>
+        <v>0.004875975039865273</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.98934766666666</v>
+        <v>17.29256033333333</v>
       </c>
       <c r="H21">
-        <v>50.96804299999999</v>
+        <v>51.877681</v>
       </c>
       <c r="I21">
-        <v>0.1221648226848053</v>
+        <v>0.08532989429495733</v>
       </c>
       <c r="J21">
-        <v>0.1221648226848053</v>
+        <v>0.08532989429495734</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.903091</v>
+        <v>0.2704173333333333</v>
       </c>
       <c r="N21">
-        <v>5.709273</v>
+        <v>0.811252</v>
       </c>
       <c r="O21">
-        <v>0.1052719415399702</v>
+        <v>0.00494163653818957</v>
       </c>
       <c r="P21">
-        <v>0.1052719415399702</v>
+        <v>0.00494163653818957</v>
       </c>
       <c r="Q21">
-        <v>32.33227464030433</v>
+        <v>4.676208051845777</v>
       </c>
       <c r="R21">
-        <v>290.990471762739</v>
+        <v>42.085872466612</v>
       </c>
       <c r="S21">
-        <v>0.01286052807191565</v>
+        <v>0.0004216693234478149</v>
       </c>
       <c r="T21">
-        <v>0.01286052807191565</v>
+        <v>0.000421669323447815</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.7050393333333332</v>
+        <v>0.2339003333333333</v>
       </c>
       <c r="H22">
-        <v>2.115118</v>
+        <v>0.701701</v>
       </c>
       <c r="I22">
-        <v>0.005069706432076273</v>
+        <v>0.001154177885412146</v>
       </c>
       <c r="J22">
-        <v>0.005069706432076273</v>
+        <v>0.001154177885412146</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.34532166666667</v>
+        <v>50.83061333333333</v>
       </c>
       <c r="N22">
-        <v>40.035965</v>
+        <v>152.49184</v>
       </c>
       <c r="O22">
-        <v>0.7382137387678421</v>
+        <v>0.9288843026824684</v>
       </c>
       <c r="P22">
-        <v>0.7382137387678421</v>
+        <v>0.9288843026824685</v>
       </c>
       <c r="Q22">
-        <v>9.408976690985556</v>
+        <v>11.88929740220444</v>
       </c>
       <c r="R22">
-        <v>84.68079021887</v>
+        <v>107.00367661984</v>
       </c>
       <c r="S22">
-        <v>0.003742526939678402</v>
+        <v>0.001072097720262587</v>
       </c>
       <c r="T22">
-        <v>0.003742526939678402</v>
+        <v>0.001072097720262587</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.7050393333333332</v>
+        <v>0.2339003333333333</v>
       </c>
       <c r="H23">
-        <v>2.115118</v>
+        <v>0.701701</v>
       </c>
       <c r="I23">
-        <v>0.005069706432076273</v>
+        <v>0.001154177885412146</v>
       </c>
       <c r="J23">
-        <v>0.005069706432076273</v>
+        <v>0.001154177885412146</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.5919546666666667</v>
+        <v>0.473144</v>
       </c>
       <c r="N23">
-        <v>1.775864</v>
+        <v>1.419432</v>
       </c>
       <c r="O23">
-        <v>0.03274473846161109</v>
+        <v>0.008646286276860333</v>
       </c>
       <c r="P23">
-        <v>0.03274473846161109</v>
+        <v>0.008646286276860333</v>
       </c>
       <c r="Q23">
-        <v>0.4173513235502222</v>
+        <v>0.1106685393146667</v>
       </c>
       <c r="R23">
-        <v>3.756161911952</v>
+        <v>0.996016853832</v>
       </c>
       <c r="S23">
-        <v>0.000166006211195485</v>
+        <v>9.979352411694714E-06</v>
       </c>
       <c r="T23">
-        <v>0.000166006211195485</v>
+        <v>9.979352411694716E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.7050393333333332</v>
+        <v>0.2339003333333333</v>
       </c>
       <c r="H24">
-        <v>2.115118</v>
+        <v>0.701701</v>
       </c>
       <c r="I24">
-        <v>0.005069706432076273</v>
+        <v>0.001154177885412146</v>
       </c>
       <c r="J24">
-        <v>0.005069706432076273</v>
+        <v>0.001154177885412146</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.1685233333333334</v>
+        <v>0.02107566666666667</v>
       </c>
       <c r="N24">
-        <v>0.5055700000000001</v>
+        <v>0.06322700000000001</v>
       </c>
       <c r="O24">
-        <v>0.009322086276897734</v>
+        <v>0.000385139085512408</v>
       </c>
       <c r="P24">
-        <v>0.009322086276897732</v>
+        <v>0.000385139085512408</v>
       </c>
       <c r="Q24">
-        <v>0.1188155785844444</v>
+        <v>0.004929605458555556</v>
       </c>
       <c r="R24">
-        <v>1.06934020726</v>
+        <v>0.044366449127</v>
       </c>
       <c r="S24">
-        <v>4.72602407583584E-05</v>
+        <v>4.445190153062787E-07</v>
       </c>
       <c r="T24">
-        <v>4.726024075835838E-05</v>
+        <v>4.445190153062788E-07</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.7050393333333332</v>
+        <v>0.2339003333333333</v>
       </c>
       <c r="H25">
-        <v>2.115118</v>
+        <v>0.701701</v>
       </c>
       <c r="I25">
-        <v>0.005069706432076273</v>
+        <v>0.001154177885412146</v>
       </c>
       <c r="J25">
-        <v>0.005069706432076273</v>
+        <v>0.001154177885412146</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.068965333333333</v>
+        <v>3.126972</v>
       </c>
       <c r="N25">
-        <v>6.206896</v>
+        <v>9.380915999999999</v>
       </c>
       <c r="O25">
-        <v>0.1144474949536789</v>
+        <v>0.05714263541696926</v>
       </c>
       <c r="P25">
-        <v>0.1144474949536789</v>
+        <v>0.05714263541696927</v>
       </c>
       <c r="Q25">
-        <v>1.458701939303111</v>
+        <v>0.7313997931240001</v>
       </c>
       <c r="R25">
-        <v>13.128317453728</v>
+        <v>6.582598138115999</v>
       </c>
       <c r="S25">
-        <v>0.0005802152013016825</v>
+        <v>6.595276611243478E-05</v>
       </c>
       <c r="T25">
-        <v>0.0005802152013016825</v>
+        <v>6.59527661124348E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.7050393333333332</v>
+        <v>0.2339003333333333</v>
       </c>
       <c r="H26">
-        <v>2.115118</v>
+        <v>0.701701</v>
       </c>
       <c r="I26">
-        <v>0.005069706432076273</v>
+        <v>0.001154177885412146</v>
       </c>
       <c r="J26">
-        <v>0.005069706432076273</v>
+        <v>0.001154177885412146</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.903091</v>
+        <v>0.2704173333333333</v>
       </c>
       <c r="N26">
-        <v>5.709273</v>
+        <v>0.811252</v>
       </c>
       <c r="O26">
-        <v>0.1052719415399702</v>
+        <v>0.00494163653818957</v>
       </c>
       <c r="P26">
-        <v>0.1052719415399702</v>
+        <v>0.00494163653818957</v>
       </c>
       <c r="Q26">
-        <v>1.341754009912667</v>
+        <v>0.06325070440577778</v>
       </c>
       <c r="R26">
-        <v>12.075786089214</v>
+        <v>0.569256339652</v>
       </c>
       <c r="S26">
-        <v>0.0005336978391423444</v>
+        <v>5.703527610123035E-06</v>
       </c>
       <c r="T26">
-        <v>0.0005336978391423444</v>
+        <v>5.703527610123036E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1.442225666666667</v>
+        <v>1.254109333333333</v>
       </c>
       <c r="H27">
-        <v>4.326677</v>
+        <v>3.762328</v>
       </c>
       <c r="I27">
-        <v>0.01037057138959456</v>
+        <v>0.006188384761126047</v>
       </c>
       <c r="J27">
-        <v>0.01037057138959456</v>
+        <v>0.006188384761126048</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>13.34532166666667</v>
+        <v>50.83061333333333</v>
       </c>
       <c r="N27">
-        <v>40.035965</v>
+        <v>152.49184</v>
       </c>
       <c r="O27">
-        <v>0.7382137387678421</v>
+        <v>0.9288843026824684</v>
       </c>
       <c r="P27">
-        <v>0.7382137387678421</v>
+        <v>0.9288843026824685</v>
       </c>
       <c r="Q27">
-        <v>19.24696543758945</v>
+        <v>63.7471466003911</v>
       </c>
       <c r="R27">
-        <v>173.222688938305</v>
+        <v>573.72431940352</v>
       </c>
       <c r="S27">
-        <v>0.007655698278671418</v>
+        <v>0.005748293463569381</v>
       </c>
       <c r="T27">
-        <v>0.007655698278671418</v>
+        <v>0.005748293463569383</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1.442225666666667</v>
+        <v>1.254109333333333</v>
       </c>
       <c r="H28">
-        <v>4.326677</v>
+        <v>3.762328</v>
       </c>
       <c r="I28">
-        <v>0.01037057138959456</v>
+        <v>0.006188384761126047</v>
       </c>
       <c r="J28">
-        <v>0.01037057138959456</v>
+        <v>0.006188384761126048</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.5919546666666667</v>
+        <v>0.473144</v>
       </c>
       <c r="N28">
-        <v>1.775864</v>
+        <v>1.419432</v>
       </c>
       <c r="O28">
-        <v>0.03274473846161109</v>
+        <v>0.008646286276860333</v>
       </c>
       <c r="P28">
-        <v>0.03274473846161109</v>
+        <v>0.008646286276860333</v>
       </c>
       <c r="Q28">
-        <v>0.8537322137697778</v>
+        <v>0.5933743064106667</v>
       </c>
       <c r="R28">
-        <v>7.683589923928001</v>
+        <v>5.340368757696</v>
       </c>
       <c r="S28">
-        <v>0.0003395816478497406</v>
+        <v>5.350654623605575E-05</v>
       </c>
       <c r="T28">
-        <v>0.0003395816478497406</v>
+        <v>5.350654623605576E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1.442225666666667</v>
+        <v>1.254109333333333</v>
       </c>
       <c r="H29">
-        <v>4.326677</v>
+        <v>3.762328</v>
       </c>
       <c r="I29">
-        <v>0.01037057138959456</v>
+        <v>0.006188384761126047</v>
       </c>
       <c r="J29">
-        <v>0.01037057138959456</v>
+        <v>0.006188384761126048</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.1685233333333334</v>
+        <v>0.02107566666666667</v>
       </c>
       <c r="N29">
-        <v>0.5055700000000001</v>
+        <v>0.06322700000000001</v>
       </c>
       <c r="O29">
-        <v>0.009322086276897734</v>
+        <v>0.000385139085512408</v>
       </c>
       <c r="P29">
-        <v>0.009322086276897732</v>
+        <v>0.000385139085512408</v>
       </c>
       <c r="Q29">
-        <v>0.2430486767655556</v>
+        <v>0.02643119027288889</v>
       </c>
       <c r="R29">
-        <v>2.18743809089</v>
+        <v>0.237880712456</v>
       </c>
       <c r="S29">
-        <v>9.667536123452774E-05</v>
+        <v>2.383388847699007E-06</v>
       </c>
       <c r="T29">
-        <v>9.667536123452773E-05</v>
+        <v>2.383388847699007E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1.442225666666667</v>
+        <v>1.254109333333333</v>
       </c>
       <c r="H30">
-        <v>4.326677</v>
+        <v>3.762328</v>
       </c>
       <c r="I30">
-        <v>0.01037057138959456</v>
+        <v>0.006188384761126047</v>
       </c>
       <c r="J30">
-        <v>0.01037057138959456</v>
+        <v>0.006188384761126048</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.068965333333333</v>
+        <v>3.126972</v>
       </c>
       <c r="N30">
-        <v>6.206896</v>
+        <v>9.380915999999999</v>
       </c>
       <c r="O30">
-        <v>0.1144474949536789</v>
+        <v>0.05714263541696926</v>
       </c>
       <c r="P30">
-        <v>0.1144474949536789</v>
+        <v>0.05714263541696927</v>
       </c>
       <c r="Q30">
-        <v>2.983914907176889</v>
+        <v>3.921564770272</v>
       </c>
       <c r="R30">
-        <v>26.855234164592</v>
+        <v>35.294082932448</v>
       </c>
       <c r="S30">
-        <v>0.00118688591677739</v>
+        <v>0.0003536206142249541</v>
       </c>
       <c r="T30">
-        <v>0.00118688591677739</v>
+        <v>0.0003536206142249542</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>1.442225666666667</v>
+        <v>1.254109333333333</v>
       </c>
       <c r="H31">
-        <v>4.326677</v>
+        <v>3.762328</v>
       </c>
       <c r="I31">
-        <v>0.01037057138959456</v>
+        <v>0.006188384761126047</v>
       </c>
       <c r="J31">
-        <v>0.01037057138959456</v>
+        <v>0.006188384761126048</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.903091</v>
+        <v>0.2704173333333333</v>
       </c>
       <c r="N31">
-        <v>5.709273</v>
+        <v>0.811252</v>
       </c>
       <c r="O31">
-        <v>0.1052719415399702</v>
+        <v>0.00494163653818957</v>
       </c>
       <c r="P31">
-        <v>0.1052719415399702</v>
+        <v>0.00494163653818957</v>
       </c>
       <c r="Q31">
-        <v>2.744686686202333</v>
+        <v>0.3391329016284444</v>
       </c>
       <c r="R31">
-        <v>24.702180175821</v>
+        <v>3.052196114656</v>
       </c>
       <c r="S31">
-        <v>0.001091730185061487</v>
+        <v>3.058074824795601E-05</v>
       </c>
       <c r="T31">
-        <v>0.001091730185061487</v>
+        <v>3.058074824795602E-05</v>
       </c>
     </row>
   </sheetData>
